--- a/main/Задачи.xlsx
+++ b/main/Задачи.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1.0 iT\Project\parser\characteristics_scanner\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9B9779-8071-4BFC-BFB7-99B762337452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C11059-94C9-4075-9559-72CB1D14AB6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{9DEDFA7B-05A6-4501-B959-D963F8A25CA0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{9DEDFA7B-05A6-4501-B959-D963F8A25CA0}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>__id__</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Добавить словарь с названием категорий и имен файлов. В случае изменения имени категории на сайте, достаточно будет поменять старое имя на новое в переменной.</t>
+  </si>
+  <si>
+    <t>Некоторые характеристики разбиты на части, необходимо объединить и обработать регулярными выражениями.</t>
   </si>
 </sst>
 </file>
@@ -112,14 +115,14 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -437,15 +440,15 @@
   <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="85.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="80.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" style="6" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
@@ -453,7 +456,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -467,727 +470,733 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>47</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>48</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>28</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>30</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>31</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>33</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>34</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>36</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>37</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>39</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>40</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>42</v>
       </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43</v>
       </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44</v>
       </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45</v>
       </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>46</v>
       </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="B65" s="2"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="B66" s="2"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="B67" s="2"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="B68" s="2"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="B69" s="2"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="B70" s="2"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
-      <c r="B71" s="2"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
-      <c r="B72" s="2"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
-      <c r="B73" s="2"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
-      <c r="B74" s="2"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
-      <c r="B75" s="2"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
-      <c r="B76" s="2"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
-      <c r="B77" s="2"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
-      <c r="B78" s="2"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
-      <c r="B79" s="2"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
-      <c r="B80" s="2"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
-      <c r="B81" s="2"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
-      <c r="B82" s="2"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
-      <c r="B83" s="2"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
-      <c r="B84" s="2"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
-      <c r="B85" s="2"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
-      <c r="B86" s="2"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
-      <c r="B87" s="2"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
-      <c r="B88" s="2"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
-      <c r="B89" s="2"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
-      <c r="B90" s="2"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
-      <c r="B91" s="2"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D91" xr:uid="{7AA214E9-ABED-46F5-8BE4-37F930F94044}">

--- a/main/Задачи.xlsx
+++ b/main/Задачи.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1.0 iT\Project\parser\characteristics_scanner\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C11059-94C9-4075-9559-72CB1D14AB6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3AA0EE-D7B6-4FE4-91A9-287AAAAFC290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{9DEDFA7B-05A6-4501-B959-D963F8A25CA0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>__id__</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Некоторые характеристики разбиты на части, необходимо объединить и обработать регулярными выражениями.</t>
+  </si>
+  <si>
+    <t>Изменить поиск бренда на странице. Возникают ошибки из-за названий состоящих из двух слов</t>
   </si>
 </sst>
 </file>
@@ -440,7 +443,7 @@
   <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,11 +497,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
     </row>

--- a/main/Задачи.xlsx
+++ b/main/Задачи.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1.0 iT\Project\parser\characteristics_scanner\main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_IT\Project\Parser\characteristics_scanner\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3AA0EE-D7B6-4FE4-91A9-287AAAAFC290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B7C95B-ADEB-44E4-B38F-3A0C0EDB6026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{9DEDFA7B-05A6-4501-B959-D963F8A25CA0}"/>
+    <workbookView xWindow="31845" yWindow="3375" windowWidth="24045" windowHeight="11505" xr2:uid="{9DEDFA7B-05A6-4501-B959-D963F8A25CA0}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>__id__</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Изменить поиск бренда на странице. Возникают ошибки из-за названий состоящих из двух слов</t>
+  </si>
+  <si>
+    <t>Добавлены две функции по объединению характеристик в одну</t>
   </si>
 </sst>
 </file>
@@ -442,11 +445,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA214E9-ABED-46F5-8BE4-37F930F94044}">
   <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="80.85546875" style="7" bestFit="1" customWidth="1"/>
@@ -455,7 +458,7 @@
     <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -469,7 +472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -483,7 +486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -497,25 +500,35 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -523,7 +536,7 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -531,7 +544,7 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -539,7 +552,7 @@
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -547,7 +560,7 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -555,7 +568,7 @@
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -563,7 +576,7 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -571,7 +584,7 @@
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -579,7 +592,7 @@
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -587,7 +600,7 @@
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -595,7 +608,7 @@
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -603,7 +616,7 @@
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -611,7 +624,7 @@
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -619,7 +632,7 @@
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -627,7 +640,7 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -635,7 +648,7 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -643,7 +656,7 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -651,7 +664,7 @@
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -659,7 +672,7 @@
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -667,7 +680,7 @@
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -675,7 +688,7 @@
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -683,7 +696,7 @@
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -691,7 +704,7 @@
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -699,7 +712,7 @@
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>47</v>
       </c>
@@ -707,7 +720,7 @@
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -715,7 +728,7 @@
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>48</v>
       </c>
@@ -723,7 +736,7 @@
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -731,7 +744,7 @@
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -739,7 +752,7 @@
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -747,7 +760,7 @@
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>31</v>
       </c>
@@ -755,7 +768,7 @@
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -763,7 +776,7 @@
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>33</v>
       </c>
@@ -771,7 +784,7 @@
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>34</v>
       </c>
@@ -779,7 +792,7 @@
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -787,7 +800,7 @@
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>36</v>
       </c>
@@ -795,7 +808,7 @@
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>37</v>
       </c>
@@ -803,7 +816,7 @@
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -811,7 +824,7 @@
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>39</v>
       </c>
@@ -819,7 +832,7 @@
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>40</v>
       </c>
@@ -827,7 +840,7 @@
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -835,7 +848,7 @@
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -843,7 +856,7 @@
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -851,7 +864,7 @@
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -859,7 +872,7 @@
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -867,7 +880,7 @@
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -875,7 +888,7 @@
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -883,7 +896,7 @@
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -891,7 +904,7 @@
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -899,7 +912,7 @@
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -907,7 +920,7 @@
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -915,7 +928,7 @@
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -923,7 +936,7 @@
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -931,7 +944,7 @@
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -939,7 +952,7 @@
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -947,7 +960,7 @@
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -955,7 +968,7 @@
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -963,7 +976,7 @@
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -971,7 +984,7 @@
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -979,7 +992,7 @@
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -987,7 +1000,7 @@
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -995,7 +1008,7 @@
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -1003,7 +1016,7 @@
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -1011,7 +1024,7 @@
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -1019,7 +1032,7 @@
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -1027,7 +1040,7 @@
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -1035,7 +1048,7 @@
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -1043,7 +1056,7 @@
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -1051,7 +1064,7 @@
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -1059,7 +1072,7 @@
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -1067,7 +1080,7 @@
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -1075,7 +1088,7 @@
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -1083,7 +1096,7 @@
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -1091,7 +1104,7 @@
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -1099,7 +1112,7 @@
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -1107,7 +1120,7 @@
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -1115,7 +1128,7 @@
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -1123,7 +1136,7 @@
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -1131,7 +1144,7 @@
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -1139,7 +1152,7 @@
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -1147,7 +1160,7 @@
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -1155,7 +1168,7 @@
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -1163,7 +1176,7 @@
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -1171,7 +1184,7 @@
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -1179,7 +1192,7 @@
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -1187,7 +1200,7 @@
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -1195,7 +1208,7 @@
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
